--- a/Andrew-annotations/FISV_Q4_2010.xlsx
+++ b/Andrew-annotations/FISV_Q4_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F269C9-ACB5-4F87-AA10-C56A6D385FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AA5FE2-9531-4ED9-B71B-338C77304DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -761,13 +761,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -793,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1270,13 +1270,13 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1311,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1401,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1526,16 +1526,16 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1558,19 +1558,19 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1593,13 +1593,13 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -1631,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -1654,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1695,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1727,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -1753,13 +1753,13 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -1814,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1881,13 +1881,13 @@
         <v>2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -1913,13 +1913,13 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>2</v>
@@ -1945,13 +1945,13 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>2</v>
